--- a/Wild_Animal_Detection_Summary.xlsx
+++ b/Wild_Animal_Detection_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanying Wang\OneDrive\Desktop\Agnico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5892DBDA-2306-4B84-BA65-B35F05907FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B51D2D-598E-47EC-9C5B-1136B441581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{3DCDF6AA-B86E-488F-9BB7-E0025DD81D90}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{3DCDF6AA-B86E-488F-9BB7-E0025DD81D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Output Distribution" sheetId="27" r:id="rId1"/>
@@ -20,23 +20,24 @@
     <sheet name="Before vs. After Comparison" sheetId="11" r:id="rId5"/>
     <sheet name="Percentage of real animals" sheetId="18" r:id="rId6"/>
     <sheet name="Animal Images by Camera" sheetId="19" r:id="rId7"/>
-    <sheet name="Post-processing Filter Camera 4" sheetId="13" r:id="rId8"/>
-    <sheet name="Model_Validation_0.2" sheetId="21" r:id="rId9"/>
-    <sheet name="Model_Validation_0.5" sheetId="12" r:id="rId10"/>
-    <sheet name="manual_validation_exclude_stati" sheetId="23" r:id="rId11"/>
-    <sheet name="manual_validation0.2_37" sheetId="24" r:id="rId12"/>
-    <sheet name="Post-processing Filter Static" sheetId="22" r:id="rId13"/>
-    <sheet name="Design of Manifest Table" sheetId="9" r:id="rId14"/>
-    <sheet name="Model Comparison" sheetId="4" r:id="rId15"/>
-    <sheet name="Why not run 2models together" sheetId="3" r:id="rId16"/>
-    <sheet name="v6b-yolo9c expected output" sheetId="5" r:id="rId17"/>
-    <sheet name="v5a expected output" sheetId="7" r:id="rId18"/>
+    <sheet name="Sandeep Time Range Analyses" sheetId="28" r:id="rId8"/>
+    <sheet name="Post-processing Filter Camera 4" sheetId="13" r:id="rId9"/>
+    <sheet name="Model_Validation_0.2" sheetId="21" r:id="rId10"/>
+    <sheet name="Model_Validation_0.5" sheetId="12" r:id="rId11"/>
+    <sheet name="manual_validation_exclude_stati" sheetId="23" r:id="rId12"/>
+    <sheet name="manual_validation0.2_37" sheetId="24" r:id="rId13"/>
+    <sheet name="Post-processing Filter Static" sheetId="22" r:id="rId14"/>
+    <sheet name="Design of Manifest Table" sheetId="9" r:id="rId15"/>
+    <sheet name="Model Comparison" sheetId="4" r:id="rId16"/>
+    <sheet name="Why not run 2models together" sheetId="3" r:id="rId17"/>
+    <sheet name="v6b-yolo9c expected output" sheetId="5" r:id="rId18"/>
+    <sheet name="v5a expected output" sheetId="7" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">manual_validation_exclude_stati!$A$1:$B$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">manual_validation0.2_37!$A$1:$B$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Model_Validation_0.2!$A$1:$B$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Model_Validation_0.5!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">manual_validation_exclude_stati!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">manual_validation0.2_37!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Model_Validation_0.2!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Model_Validation_0.5!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="2057">
   <si>
     <t>CPU</t>
   </si>
@@ -6775,6 +6776,138 @@
   </si>
   <si>
     <t>included in the Volume table as last column</t>
+  </si>
+  <si>
+    <t>NON-Animal</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>camera 3</t>
+  </si>
+  <si>
+    <t>camera 9</t>
+  </si>
+  <si>
+    <t>camera 7</t>
+  </si>
+  <si>
+    <t>camera 2</t>
+  </si>
+  <si>
+    <t>camera 16</t>
+  </si>
+  <si>
+    <t>camera 6</t>
+  </si>
+  <si>
+    <t>camera 8</t>
+  </si>
+  <si>
+    <t>camera 10</t>
+  </si>
+  <si>
+    <t>yak</t>
+  </si>
+  <si>
+    <t>camera 20</t>
+  </si>
+  <si>
+    <t>camera 1</t>
+  </si>
+  <si>
+    <t>camera 15</t>
+  </si>
+  <si>
+    <t>camera 11</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>1202, 946</t>
+  </si>
+  <si>
+    <t>98, 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02, 06, </t>
+  </si>
+  <si>
+    <t>camera 18</t>
+  </si>
+  <si>
+    <t>camera 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02, </t>
+  </si>
+  <si>
+    <t>camera 17</t>
+  </si>
+  <si>
+    <t>Birds, caribou/deer, trucks mostly</t>
+  </si>
+  <si>
+    <t>925, 1468, 597</t>
+  </si>
+  <si>
+    <t>92, 90, 0.0</t>
+  </si>
+  <si>
+    <t>12, 21, 22</t>
+  </si>
+  <si>
+    <t>camera 13</t>
+  </si>
+  <si>
+    <t>Sun Glare</t>
+  </si>
+  <si>
+    <t>563, 1199, 722, 716, 718, 597</t>
+  </si>
+  <si>
+    <t>0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18, 19, 20,  21, 22, 23 </t>
+  </si>
+  <si>
+    <t>camera 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small BB far away </t>
+  </si>
+  <si>
+    <t>710, 1091, 1132, 671</t>
+  </si>
+  <si>
+    <t>0.0, 0.0, 0.0, 0.0</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>camera 14</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Respective Image Counts</t>
+  </si>
+  <si>
+    <t>Respective Precision(sample 50 images)(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours having images &gt;= 500 </t>
+  </si>
+  <si>
+    <t>Camera Folder</t>
   </si>
 </sst>
 </file>
@@ -6875,7 +7008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6939,6 +7072,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7140,7 +7291,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7341,7 +7492,31 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8351,7 +8526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A92BB-CBD1-4C6A-BB96-B59C89167BCD}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8447,7 +8622,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="6" t="s">
         <v>2008</v>
       </c>
     </row>
@@ -8829,6 +9004,634 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E55B0B-F4AA-46CF-877A-B2E4FF1B042C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="138" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1">
+      <c r="A3" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1">
+      <c r="A4" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1">
+      <c r="A8" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1">
+      <c r="A9" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1">
+      <c r="A10" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1">
+      <c r="A12" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1">
+      <c r="A17" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1">
+      <c r="A18" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1">
+      <c r="A20" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1">
+      <c r="A21" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1">
+      <c r="A23" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1">
+      <c r="A24" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1">
+      <c r="A25" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1">
+      <c r="A26" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1">
+      <c r="A27" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1">
+      <c r="A28" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1">
+      <c r="A29" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1">
+      <c r="A32" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1">
+      <c r="A33" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1">
+      <c r="A35" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1">
+      <c r="A37" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1">
+      <c r="A38" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1">
+      <c r="A39" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1">
+      <c r="A41" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1">
+      <c r="A42" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1">
+      <c r="A44" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1">
+      <c r="A45" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1">
+      <c r="A47" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1">
+      <c r="A48" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1">
+      <c r="A49" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1">
+      <c r="A50" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1">
+      <c r="A51" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1">
+      <c r="A53" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1">
+      <c r="A55" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1">
+      <c r="A56" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1">
+      <c r="A57" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1">
+      <c r="A58" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1">
+      <c r="A59" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1">
+      <c r="A60" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1">
+      <c r="A61" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1">
+      <c r="A63" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1">
+      <c r="A64" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1">
+      <c r="A65" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1">
+      <c r="A66" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1">
+      <c r="A67" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1">
+      <c r="A68" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1">
+      <c r="A69" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1">
+      <c r="A70" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1">
+      <c r="A71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1">
+      <c r="A72" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1">
+      <c r="A74" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1">
+      <c r="A75" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1">
+      <c r="A76" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1">
+      <c r="A77" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1">
+      <c r="A80" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1">
+      <c r="A81" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1">
+      <c r="A83" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1">
+      <c r="A85" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1">
+      <c r="A86" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1">
+      <c r="A87" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1">
+      <c r="A88" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1">
+      <c r="A89" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1">
+      <c r="A90" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1">
+      <c r="A91" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1">
+      <c r="A92" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1">
+      <c r="A94" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1">
+      <c r="A95" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1">
+      <c r="A98" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1">
+      <c r="A100" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B101" xr:uid="{68E55B0B-F4AA-46CF-877A-B2E4FF1B042C}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EFE06-9CC8-4A5C-8B87-6CF92B6DF57A}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -9805,7 +10608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3021776-C32A-41D6-B3D4-6BB23331E9A9}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B101"/>
@@ -10418,7 +11221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F526D0F-54F6-4C77-8820-7F884ADC8F23}">
   <dimension ref="A1:B101"/>
   <sheetViews>
@@ -11056,7 +11859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F995C-9C6F-4A7E-8801-CCCE2CF7B72D}">
   <dimension ref="A1:A61"/>
   <sheetViews>
@@ -11107,7 +11910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB913C4-A332-43AD-B840-AF81523FC7EB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -11349,7 +12152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A010B72B-3EB7-4BED-95C3-4C586CFBBF7F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11364,7 +12167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233F4920-20C2-4B11-A81E-B7E65BCD50A1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -11423,7 +12226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2674CE57-059F-4973-AC36-3535A6E69289}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11438,7 +12241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27376355-FF80-4A0B-9423-3EC73ABD3B92}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11472,7 +12275,7 @@
     <col min="7" max="7" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>116</v>
       </c>
@@ -26928,6 +27731,385 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B18D7-F328-4803-AFBC-439FB991F4EE}">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="7" max="7" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="118" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E2" s="118" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F2" s="118" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="115" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="115">
+        <v>6951</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F3" s="115">
+        <v>3604</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="115" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B4" s="115">
+        <v>6266</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F4" s="115">
+        <v>4515</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="115" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B5" s="115">
+        <v>5014</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F5" s="115">
+        <v>2990</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="115" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B6" s="115">
+        <v>3535</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D6" s="115">
+        <v>98</v>
+      </c>
+      <c r="E6" s="115">
+        <v>2566</v>
+      </c>
+      <c r="F6" s="115">
+        <v>2566</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="115" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B7" s="115">
+        <v>3160</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="113"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="115" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B8" s="115">
+        <v>3096</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F8" s="115">
+        <v>2148</v>
+      </c>
+      <c r="G8" s="116" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="115" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="115">
+        <v>1754</v>
+      </c>
+      <c r="C9" s="115">
+        <v>18</v>
+      </c>
+      <c r="D9" s="115">
+        <v>96</v>
+      </c>
+      <c r="E9" s="115">
+        <v>449</v>
+      </c>
+      <c r="F9" s="115">
+        <v>449</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="115" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B10" s="115">
+        <v>867</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="113"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="115" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="115">
+        <v>840</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="113"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="115" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="115">
+        <v>705</v>
+      </c>
+      <c r="C12" s="115">
+        <v>17</v>
+      </c>
+      <c r="D12" s="115">
+        <v>100</v>
+      </c>
+      <c r="E12" s="115">
+        <v>335</v>
+      </c>
+      <c r="F12" s="115">
+        <v>335</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="115" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="115">
+        <v>354</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="113"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="115" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="115">
+        <v>276</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="113"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="115" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="115">
+        <v>238</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="113"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="115" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="115">
+        <v>130</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="113"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="115" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="115">
+        <v>121</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="115" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="115">
+        <v>116</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="113"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="115" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="115">
+        <v>32</v>
+      </c>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="113"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="115" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="115">
+        <v>24</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="113"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="111">
+        <f>SUM(B3:B20)</f>
+        <v>33479</v>
+      </c>
+      <c r="F21" s="110">
+        <f>SUM(F3:F20)</f>
+        <v>16607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="E22" s="109" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F22" s="108">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="E23" s="109" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F23" s="108">
+        <v>8716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED0E6C1-7082-4066-B782-F1F0F4DE92D1}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -26950,632 +28132,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E55B0B-F4AA-46CF-877A-B2E4FF1B042C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="138" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1">
-      <c r="A3" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1">
-      <c r="A4" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1">
-      <c r="A8" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1">
-      <c r="A9" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1">
-      <c r="A10" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1">
-      <c r="A12" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1">
-      <c r="A17" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1">
-      <c r="A18" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1">
-      <c r="A20" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1">
-      <c r="A21" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1">
-      <c r="A23" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1">
-      <c r="A24" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1">
-      <c r="A25" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1">
-      <c r="A26" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1">
-      <c r="A27" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1">
-      <c r="A28" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1">
-      <c r="A29" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1">
-      <c r="A32" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1">
-      <c r="A33" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1">
-      <c r="A35" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1">
-      <c r="A37" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1">
-      <c r="A38" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1">
-      <c r="A39" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1">
-      <c r="A41" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1">
-      <c r="A42" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1">
-      <c r="A44" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1">
-      <c r="A45" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1">
-      <c r="A47" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1">
-      <c r="A48" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1">
-      <c r="A49" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1">
-      <c r="A50" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1">
-      <c r="A51" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1">
-      <c r="A53" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1">
-      <c r="A55" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1">
-      <c r="A56" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1">
-      <c r="A57" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1">
-      <c r="A58" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1">
-      <c r="A59" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1">
-      <c r="A60" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1">
-      <c r="A61" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1">
-      <c r="A63" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1">
-      <c r="A64" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1">
-      <c r="A65" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1">
-      <c r="A66" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1">
-      <c r="A67" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1">
-      <c r="A68" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1">
-      <c r="A69" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1">
-      <c r="A70" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1">
-      <c r="A71" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1">
-      <c r="A72" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1">
-      <c r="A74" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1">
-      <c r="A75" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1">
-      <c r="A76" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1">
-      <c r="A77" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1">
-      <c r="A80" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1">
-      <c r="A81" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1">
-      <c r="A83" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1">
-      <c r="A85" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1">
-      <c r="A86" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1">
-      <c r="A87" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1">
-      <c r="A88" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1">
-      <c r="A89" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1">
-      <c r="A90" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1">
-      <c r="A91" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1">
-      <c r="A92" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1">
-      <c r="A94" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" hidden="1">
-      <c r="A95" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1">
-      <c r="A98" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" hidden="1">
-      <c r="A100" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B101" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B101" xr:uid="{68E55B0B-F4AA-46CF-877A-B2E4FF1B042C}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>